--- a/descripcion_curso.xlsx
+++ b/descripcion_curso.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Desktop\programa u-cursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ucursos\ProgramaUcursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Inic el pensam geométrico" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>Relaciones espaciales y visualización de proyecciones en el plano</t>
   </si>
   <si>
-    <t>El espacio de Patty</t>
-  </si>
-  <si>
     <t>Imaginando distintas perspectivas</t>
   </si>
   <si>
@@ -123,14 +120,25 @@
   </si>
   <si>
     <t>html</t>
+  </si>
+  <si>
+    <t>El espacio de Patricia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -386,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -406,6 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,19 +729,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,304 +749,306 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="18"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="B21" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>